--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  4 CARNES   ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  4 CARNES   ZAVALETA   ABRIL  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="42">
   <si>
     <t>REMISION</t>
   </si>
@@ -977,60 +977,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,6 +1039,60 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2409,24 +2409,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="119"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="147"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -3572,12 +3572,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="113">
+      <c r="D55" s="141">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="114"/>
-      <c r="F55" s="115"/>
+      <c r="E55" s="142"/>
+      <c r="F55" s="143"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3591,11 +3591,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="116" t="s">
+      <c r="D57" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3723,27 +3723,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -3938,11 +3938,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="126">
+      <c r="G11" s="154">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="155"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -5317,11 +5317,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="128">
+      <c r="G81" s="156">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="129"/>
+      <c r="H81" s="157"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -5409,12 +5409,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="113">
+      <c r="E88" s="141">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="114"/>
-      <c r="G88" s="115"/>
+      <c r="F88" s="142"/>
+      <c r="G88" s="143"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -5431,11 +5431,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="116" t="s">
+      <c r="E90" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="116"/>
-      <c r="G90" s="116"/>
+      <c r="F90" s="144"/>
+      <c r="G90" s="144"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5580,25 +5580,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="147"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6490,12 +6490,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="113">
+      <c r="E52" s="141">
         <f>E48-G48</f>
         <v>734621</v>
       </c>
-      <c r="F52" s="114"/>
-      <c r="G52" s="115"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="143"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -6511,11 +6511,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="116" t="s">
+      <c r="E54" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
+      <c r="F54" s="144"/>
+      <c r="G54" s="144"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -6671,25 +6671,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="147"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8419,12 +8419,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="113">
+      <c r="E76" s="141">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="114"/>
-      <c r="G76" s="115"/>
+      <c r="F76" s="142"/>
+      <c r="G76" s="143"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -8440,11 +8440,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="116" t="s">
+      <c r="E78" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="116"/>
-      <c r="G78" s="116"/>
+      <c r="F78" s="144"/>
+      <c r="G78" s="144"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -8585,25 +8585,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="147"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9452,12 +9452,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="113">
+      <c r="E41" s="141">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="114"/>
-      <c r="G41" s="115"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="143"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -9473,11 +9473,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="116" t="s">
+      <c r="E43" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="144"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -9621,25 +9621,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="122"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10979,12 +10979,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="113">
+      <c r="E60" s="141">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="114"/>
-      <c r="G60" s="115"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="143"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -11000,11 +11000,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="116" t="s">
+      <c r="E62" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
+      <c r="F62" s="144"/>
+      <c r="G62" s="144"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -11145,25 +11145,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="122"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12564,12 +12564,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="113">
+      <c r="E61" s="141">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="114"/>
-      <c r="G61" s="115"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="143"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -12585,11 +12585,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="116" t="s">
+      <c r="E63" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
+      <c r="F63" s="144"/>
+      <c r="G63" s="144"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -12730,25 +12730,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="122"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14164,12 +14164,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="113">
+      <c r="E64" s="141">
         <f>E60-G60</f>
         <v>78284</v>
       </c>
-      <c r="F64" s="114"/>
-      <c r="G64" s="115"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="143"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -14185,11 +14185,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="116" t="s">
+      <c r="E66" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="116"/>
-      <c r="G66" s="116"/>
+      <c r="F66" s="144"/>
+      <c r="G66" s="144"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -14312,8 +14312,8 @@
   </sheetPr>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14330,25 +14330,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="122"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14414,11 +14414,15 @@
       <c r="E5" s="20">
         <v>35738</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="21">
+        <v>44665</v>
+      </c>
+      <c r="G5" s="22">
+        <v>35738</v>
+      </c>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
-        <v>35738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -14471,7 +14475,7 @@
         <v>289</v>
       </c>
       <c r="C8" s="90"/>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="138" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="20">
@@ -14664,7 +14668,7 @@
         <v>298</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="157" t="s">
+      <c r="D17" s="139" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="20">
@@ -14775,21 +14779,31 @@
       <c r="E22" s="20">
         <v>2319</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="21">
+        <v>44663</v>
+      </c>
+      <c r="G22" s="22">
+        <v>2319</v>
+      </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>44658</v>
+      </c>
       <c r="B23" s="13">
         <v>304</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="18">
@@ -14797,14 +14811,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>44658</v>
+      </c>
       <c r="B24" s="13">
         <v>305</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
       <c r="H24" s="18">
@@ -14813,118 +14833,166 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12">
+        <v>44658</v>
+      </c>
       <c r="B25" s="13">
         <v>306</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="20">
+        <v>22573</v>
+      </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22573</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12">
+        <v>44659</v>
+      </c>
       <c r="B26" s="13">
         <v>307</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="20">
+        <v>162312</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>162312</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12">
+        <v>44659</v>
+      </c>
       <c r="B27" s="13">
         <v>308</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="20">
+        <v>7349</v>
+      </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7349</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="12">
+        <v>44659</v>
+      </c>
       <c r="B28" s="13">
         <v>309</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="20">
+        <v>7530</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="12">
+        <v>44659</v>
+      </c>
       <c r="B29" s="13">
         <v>310</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="20">
+        <v>75</v>
+      </c>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="12">
+        <v>44660</v>
+      </c>
       <c r="B30" s="13">
         <v>311</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="20">
+        <v>10473</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10473</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="12">
+        <v>44662</v>
+      </c>
       <c r="B31" s="13">
         <v>312</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="20">
+        <v>20645</v>
+      </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20645</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="23">
+        <v>44663</v>
+      </c>
       <c r="B32" s="13">
         <v>313</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1509</v>
+      </c>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="18">
@@ -14932,13 +15000,19 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="23">
+        <v>44664</v>
+      </c>
       <c r="B33" s="13">
         <v>314</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="20">
+        <v>8299</v>
+      </c>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
       <c r="H33" s="18">
@@ -14946,47 +15020,65 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="23">
+        <v>44665</v>
+      </c>
       <c r="B34" s="13">
         <v>315</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="154"/>
+      <c r="D34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="20">
+        <v>11438</v>
+      </c>
+      <c r="F34" s="136"/>
       <c r="G34" s="22"/>
       <c r="H34" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="23">
+        <v>44665</v>
+      </c>
       <c r="B35" s="13">
         <v>316</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="20">
+        <v>43066</v>
+      </c>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43066</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="23">
+        <v>44667</v>
+      </c>
       <c r="B36" s="13">
         <v>317</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="20">
+        <v>35544</v>
+      </c>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35544</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15040,7 +15132,7 @@
         <v>321</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="155"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
@@ -15339,16 +15431,16 @@
       <c r="D60" s="2"/>
       <c r="E60" s="39">
         <f>SUM(E4:E59)</f>
-        <v>322477</v>
+        <v>653290</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="39">
         <f>SUM(G4:G59)</f>
-        <v>1133</v>
+        <v>39190</v>
       </c>
       <c r="H60" s="40">
         <f>SUM(H4:H59)</f>
-        <v>321344</v>
+        <v>592854</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -15390,12 +15482,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="113">
+      <c r="E64" s="141">
         <f>E60-G60</f>
-        <v>321344</v>
-      </c>
-      <c r="F64" s="114"/>
-      <c r="G64" s="115"/>
+        <v>614100</v>
+      </c>
+      <c r="F64" s="142"/>
+      <c r="G64" s="143"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -15411,152 +15503,152 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="116" t="s">
+      <c r="E66" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="116"/>
-      <c r="G66" s="116"/>
+      <c r="F66" s="144"/>
+      <c r="G66" s="144"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="140"/>
-      <c r="B67" s="141"/>
-      <c r="C67" s="142"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="144"/>
-      <c r="F67" s="145"/>
-      <c r="G67" s="146"/>
+      <c r="A67" s="122"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="128"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="130"/>
-      <c r="B68" s="131"/>
-      <c r="C68" s="132"/>
+      <c r="A68" s="112"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="114"/>
       <c r="D68" s="49"/>
       <c r="E68" s="50"/>
       <c r="F68" s="51"/>
       <c r="G68" s="50"/>
-      <c r="H68" s="133"/>
+      <c r="H68" s="115"/>
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="147"/>
-      <c r="B69" s="148"/>
-      <c r="C69" s="149"/>
-      <c r="D69" s="150"/>
-      <c r="E69" s="151"/>
-      <c r="F69" s="152"/>
-      <c r="G69" s="153"/>
-      <c r="H69" s="133"/>
+      <c r="A69" s="129"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="131"/>
+      <c r="D69" s="132"/>
+      <c r="E69" s="133"/>
+      <c r="F69" s="134"/>
+      <c r="G69" s="135"/>
+      <c r="H69" s="115"/>
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="147"/>
-      <c r="B70" s="148"/>
-      <c r="C70" s="149"/>
-      <c r="D70" s="150"/>
-      <c r="E70" s="151"/>
-      <c r="F70" s="152"/>
-      <c r="G70" s="153"/>
-      <c r="H70" s="133"/>
+      <c r="A70" s="129"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="131"/>
+      <c r="D70" s="132"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="134"/>
+      <c r="G70" s="135"/>
+      <c r="H70" s="115"/>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="147"/>
-      <c r="B71" s="148"/>
-      <c r="C71" s="149"/>
-      <c r="D71" s="150"/>
-      <c r="E71" s="151"/>
-      <c r="F71" s="152"/>
-      <c r="G71" s="153"/>
-      <c r="H71" s="133"/>
+      <c r="A71" s="129"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="131"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="133"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="135"/>
+      <c r="H71" s="115"/>
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="147"/>
-      <c r="B72" s="148"/>
-      <c r="C72" s="149"/>
-      <c r="D72" s="150"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="152"/>
-      <c r="G72" s="153"/>
-      <c r="H72" s="133"/>
+      <c r="A72" s="129"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="132"/>
+      <c r="E72" s="133"/>
+      <c r="F72" s="134"/>
+      <c r="G72" s="135"/>
+      <c r="H72" s="115"/>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="147"/>
-      <c r="B73" s="148"/>
-      <c r="C73" s="149"/>
-      <c r="D73" s="150"/>
-      <c r="E73" s="151"/>
-      <c r="F73" s="152"/>
-      <c r="G73" s="153"/>
-      <c r="H73" s="133"/>
+      <c r="A73" s="129"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="131"/>
+      <c r="D73" s="132"/>
+      <c r="E73" s="133"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="135"/>
+      <c r="H73" s="115"/>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="147"/>
-      <c r="B74" s="148"/>
-      <c r="C74" s="149"/>
-      <c r="D74" s="150"/>
-      <c r="E74" s="151"/>
-      <c r="F74" s="152"/>
-      <c r="G74" s="153"/>
-      <c r="H74" s="133"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="130"/>
+      <c r="C74" s="131"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="133"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="135"/>
+      <c r="H74" s="115"/>
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="147"/>
-      <c r="B75" s="148"/>
-      <c r="C75" s="149"/>
-      <c r="D75" s="150"/>
-      <c r="E75" s="151"/>
-      <c r="F75" s="152"/>
-      <c r="G75" s="153"/>
-      <c r="H75" s="133"/>
+      <c r="A75" s="129"/>
+      <c r="B75" s="130"/>
+      <c r="C75" s="131"/>
+      <c r="D75" s="132"/>
+      <c r="E75" s="133"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="135"/>
+      <c r="H75" s="115"/>
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="147"/>
-      <c r="B76" s="148"/>
-      <c r="C76" s="149"/>
-      <c r="D76" s="150"/>
-      <c r="E76" s="151"/>
-      <c r="F76" s="152"/>
-      <c r="G76" s="153"/>
-      <c r="H76" s="133"/>
+      <c r="A76" s="129"/>
+      <c r="B76" s="130"/>
+      <c r="C76" s="131"/>
+      <c r="D76" s="132"/>
+      <c r="E76" s="133"/>
+      <c r="F76" s="134"/>
+      <c r="G76" s="135"/>
+      <c r="H76" s="115"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="147"/>
-      <c r="B77" s="148"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="150"/>
-      <c r="E77" s="151"/>
-      <c r="F77" s="152"/>
-      <c r="G77" s="153"/>
-      <c r="H77" s="133"/>
+      <c r="A77" s="129"/>
+      <c r="B77" s="130"/>
+      <c r="C77" s="131"/>
+      <c r="D77" s="132"/>
+      <c r="E77" s="133"/>
+      <c r="F77" s="134"/>
+      <c r="G77" s="135"/>
+      <c r="H77" s="115"/>
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="147"/>
-      <c r="B78" s="148"/>
-      <c r="C78" s="149"/>
-      <c r="D78" s="150"/>
-      <c r="E78" s="151"/>
-      <c r="F78" s="152"/>
-      <c r="G78" s="153"/>
-      <c r="H78" s="133"/>
+      <c r="A78" s="129"/>
+      <c r="B78" s="130"/>
+      <c r="C78" s="131"/>
+      <c r="D78" s="132"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="134"/>
+      <c r="G78" s="135"/>
+      <c r="H78" s="115"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="134"/>
-      <c r="B79" s="135"/>
-      <c r="C79" s="136"/>
-      <c r="D79" s="133"/>
-      <c r="E79" s="137"/>
-      <c r="F79" s="138"/>
-      <c r="G79" s="139"/>
-      <c r="H79" s="133"/>
+      <c r="A79" s="116"/>
+      <c r="B79" s="117"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="115"/>
+      <c r="E79" s="119"/>
+      <c r="F79" s="120"/>
+      <c r="G79" s="121"/>
+      <c r="H79" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15603,26 +15695,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  4 CARNES   ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  4 CARNES   ZAVALETA   ABRIL  2022.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="43">
   <si>
     <t>REMISION</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t xml:space="preserve">NORMA LEDO   Central </t>
+  </si>
+  <si>
+    <t>taras 18-Abr-22</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1092,6 +1095,9 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12712,8 +12718,8 @@
   </sheetPr>
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13897,11 +13903,15 @@
       <c r="E49" s="20">
         <v>35466</v>
       </c>
-      <c r="F49" s="95"/>
-      <c r="G49" s="96"/>
+      <c r="F49" s="95">
+        <v>44669</v>
+      </c>
+      <c r="G49" s="96">
+        <v>35466</v>
+      </c>
       <c r="H49" s="18">
         <f t="shared" si="0"/>
-        <v>35466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13918,11 +13928,15 @@
       <c r="E50" s="20">
         <v>226</v>
       </c>
-      <c r="F50" s="95"/>
-      <c r="G50" s="96"/>
+      <c r="F50" s="95">
+        <v>44669</v>
+      </c>
+      <c r="G50" s="96">
+        <v>226</v>
+      </c>
       <c r="H50" s="18">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13939,14 +13953,18 @@
       <c r="E51" s="20">
         <v>12107</v>
       </c>
-      <c r="F51" s="95"/>
-      <c r="G51" s="96"/>
+      <c r="F51" s="95">
+        <v>44669</v>
+      </c>
+      <c r="G51" s="96">
+        <v>12107</v>
+      </c>
       <c r="H51" s="18">
         <f t="shared" si="0"/>
-        <v>12107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>44644</v>
       </c>
@@ -13960,10 +13978,12 @@
       <c r="E52" s="20">
         <v>0</v>
       </c>
-      <c r="F52" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="96"/>
+      <c r="F52" s="158" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="96">
+        <v>0</v>
+      </c>
       <c r="H52" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14004,11 +14024,15 @@
       <c r="E54" s="20">
         <v>5334</v>
       </c>
-      <c r="F54" s="95"/>
-      <c r="G54" s="96"/>
+      <c r="F54" s="95">
+        <v>44669</v>
+      </c>
+      <c r="G54" s="96">
+        <v>5334</v>
+      </c>
       <c r="H54" s="18">
         <f t="shared" si="0"/>
-        <v>5334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14025,11 +14049,15 @@
       <c r="E55" s="20">
         <v>9690</v>
       </c>
-      <c r="F55" s="95"/>
-      <c r="G55" s="96"/>
+      <c r="F55" s="95">
+        <v>44669</v>
+      </c>
+      <c r="G55" s="96">
+        <v>9690</v>
+      </c>
       <c r="H55" s="18">
         <f t="shared" si="0"/>
-        <v>9690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14046,11 +14074,15 @@
       <c r="E56" s="20">
         <v>10701</v>
       </c>
-      <c r="F56" s="95"/>
-      <c r="G56" s="96"/>
+      <c r="F56" s="95">
+        <v>44669</v>
+      </c>
+      <c r="G56" s="96">
+        <v>10701</v>
+      </c>
       <c r="H56" s="18">
         <f t="shared" si="0"/>
-        <v>10701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14118,11 +14150,11 @@
       <c r="F60" s="39"/>
       <c r="G60" s="39">
         <f>SUM(G4:G59)</f>
-        <v>1002258</v>
+        <v>1075782</v>
       </c>
       <c r="H60" s="40">
         <f>SUM(H4:H59)</f>
-        <v>78284</v>
+        <v>4760</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -14166,7 +14198,7 @@
       <c r="D64" s="2"/>
       <c r="E64" s="141">
         <f>E60-G60</f>
-        <v>78284</v>
+        <v>4760</v>
       </c>
       <c r="F64" s="142"/>
       <c r="G64" s="143"/>
@@ -14312,8 +14344,8 @@
   </sheetPr>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14392,11 +14424,15 @@
       <c r="E4" s="15">
         <v>9500</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="16">
+        <v>44669</v>
+      </c>
+      <c r="G4" s="17">
+        <v>9500</v>
+      </c>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H59" si="0">E4-G4</f>
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -14439,11 +14475,15 @@
       <c r="E6" s="20">
         <v>7615</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G6" s="22">
+        <v>7615</v>
+      </c>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>7615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14460,11 +14500,15 @@
       <c r="E7" s="20">
         <v>2736</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G7" s="22">
+        <v>2736</v>
+      </c>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>2736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -14502,11 +14546,15 @@
       <c r="E9" s="20">
         <v>8854</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G9" s="22">
+        <v>8854</v>
+      </c>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
-        <v>8854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -14523,11 +14571,15 @@
       <c r="E10" s="20">
         <v>5206</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G10" s="22">
+        <v>5206</v>
+      </c>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>5206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -14569,11 +14621,15 @@
       <c r="E12" s="20">
         <v>14942</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G12" s="22">
+        <v>14942</v>
+      </c>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>14942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -14590,11 +14646,15 @@
       <c r="E13" s="20">
         <v>31921</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G13" s="22">
+        <v>31921</v>
+      </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>31921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -14611,11 +14671,15 @@
       <c r="E14" s="20">
         <v>51177</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G14" s="22">
+        <v>51177</v>
+      </c>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>51177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -14632,11 +14696,15 @@
       <c r="E15" s="20">
         <v>7615</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G15" s="22">
+        <v>7615</v>
+      </c>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>7615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -14653,11 +14721,15 @@
       <c r="E16" s="20">
         <v>14110</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G16" s="22">
+        <v>14110</v>
+      </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>14110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -14695,11 +14767,15 @@
       <c r="E18" s="20">
         <v>75342</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G18" s="22">
+        <v>75342</v>
+      </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>75342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -14716,11 +14792,15 @@
       <c r="E19" s="20">
         <v>9502</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G19" s="22">
+        <v>9502</v>
+      </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>9502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -14758,11 +14838,15 @@
       <c r="E21" s="20">
         <v>7600</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G21" s="22">
+        <v>7600</v>
+      </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>7600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -14846,11 +14930,15 @@
       <c r="E25" s="20">
         <v>22573</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G25" s="22">
+        <v>22573</v>
+      </c>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>22573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -14867,11 +14955,15 @@
       <c r="E26" s="20">
         <v>162312</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G26" s="22">
+        <v>162312</v>
+      </c>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>162312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -14888,11 +14980,15 @@
       <c r="E27" s="20">
         <v>7349</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G27" s="22">
+        <v>7349</v>
+      </c>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>7349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -14909,11 +15005,15 @@
       <c r="E28" s="20">
         <v>7530</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G28" s="22">
+        <v>7530</v>
+      </c>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>7530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14930,11 +15030,15 @@
       <c r="E29" s="20">
         <v>75</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G29" s="22">
+        <v>75</v>
+      </c>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -14951,11 +15055,15 @@
       <c r="E30" s="20">
         <v>10473</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G30" s="22">
+        <v>10473</v>
+      </c>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>10473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14972,11 +15080,15 @@
       <c r="E31" s="20">
         <v>20645</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G31" s="22">
+        <v>20645</v>
+      </c>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>20645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14993,8 +15105,12 @@
       <c r="E32" s="20">
         <v>1509</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="21">
+        <v>44671</v>
+      </c>
+      <c r="G32" s="22">
+        <v>1509</v>
+      </c>
       <c r="H32" s="18">
         <v>0</v>
       </c>
@@ -15013,8 +15129,12 @@
       <c r="E33" s="20">
         <v>8299</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G33" s="22">
+        <v>8299</v>
+      </c>
       <c r="H33" s="18">
         <v>0</v>
       </c>
@@ -15033,8 +15153,12 @@
       <c r="E34" s="20">
         <v>11438</v>
       </c>
-      <c r="F34" s="136"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="136">
+        <v>44669</v>
+      </c>
+      <c r="G34" s="22">
+        <v>11438</v>
+      </c>
       <c r="H34" s="18">
         <v>0</v>
       </c>
@@ -15074,86 +15198,120 @@
       <c r="E36" s="20">
         <v>35544</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="21">
+        <v>44669</v>
+      </c>
+      <c r="G36" s="22">
+        <v>35544</v>
+      </c>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>35544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="23">
+        <v>44669</v>
+      </c>
       <c r="B37" s="13">
         <v>318</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="20">
+        <v>7615</v>
+      </c>
       <c r="F37" s="21"/>
       <c r="G37" s="22"/>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7615</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="23">
+        <v>44669</v>
+      </c>
       <c r="B38" s="13">
         <v>319</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
+      <c r="D38" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="20">
+        <v>5791</v>
+      </c>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="23">
+        <v>44670</v>
+      </c>
       <c r="B39" s="13">
         <v>320</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
+      <c r="D39" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="20">
+        <v>10777</v>
+      </c>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10777</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="23">
+        <v>44671</v>
+      </c>
       <c r="B40" s="13">
         <v>321</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="20"/>
+      <c r="D40" s="137" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="20">
+        <v>1758</v>
+      </c>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="23">
+        <v>44671</v>
+      </c>
       <c r="B41" s="13">
         <v>322</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
+      <c r="D41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="20">
+        <v>4970</v>
+      </c>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15431,16 +15589,16 @@
       <c r="D60" s="2"/>
       <c r="E60" s="39">
         <f>SUM(E4:E59)</f>
-        <v>653290</v>
+        <v>684201</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="39">
         <f>SUM(G4:G59)</f>
-        <v>39190</v>
+        <v>573057</v>
       </c>
       <c r="H60" s="40">
         <f>SUM(H4:H59)</f>
-        <v>592854</v>
+        <v>111144</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -15484,7 +15642,7 @@
       <c r="D64" s="2"/>
       <c r="E64" s="141">
         <f>E60-G60</f>
-        <v>614100</v>
+        <v>111144</v>
       </c>
       <c r="F64" s="142"/>
       <c r="G64" s="143"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  4 CARNES   ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  4 CARNES   ZAVALETA   ABRIL  2022.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="43">
   <si>
     <t>REMISION</t>
   </si>
@@ -1042,6 +1042,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1095,9 +1098,6 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2415,24 +2415,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -3578,12 +3578,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="141">
+      <c r="D55" s="142">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="142"/>
-      <c r="F55" s="143"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="144"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3597,11 +3597,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="144" t="s">
+      <c r="D57" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3729,27 +3729,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -3944,11 +3944,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="154">
+      <c r="G11" s="155">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="155"/>
+      <c r="H11" s="156"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -5323,11 +5323,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="156">
+      <c r="G81" s="157">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="157"/>
+      <c r="H81" s="158"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -5415,12 +5415,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="141">
+      <c r="E88" s="142">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="142"/>
-      <c r="G88" s="143"/>
+      <c r="F88" s="143"/>
+      <c r="G88" s="144"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -5437,11 +5437,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="144" t="s">
+      <c r="E90" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="144"/>
-      <c r="G90" s="144"/>
+      <c r="F90" s="145"/>
+      <c r="G90" s="145"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5586,25 +5586,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="148"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6496,12 +6496,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="141">
+      <c r="E52" s="142">
         <f>E48-G48</f>
         <v>734621</v>
       </c>
-      <c r="F52" s="142"/>
-      <c r="G52" s="143"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="144"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -6517,11 +6517,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="144" t="s">
+      <c r="E54" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="144"/>
-      <c r="G54" s="144"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -6677,25 +6677,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="148"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8425,12 +8425,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="141">
+      <c r="E76" s="142">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="142"/>
-      <c r="G76" s="143"/>
+      <c r="F76" s="143"/>
+      <c r="G76" s="144"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -8446,11 +8446,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="144" t="s">
+      <c r="E78" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="144"/>
-      <c r="G78" s="144"/>
+      <c r="F78" s="145"/>
+      <c r="G78" s="145"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -8591,25 +8591,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="148"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9458,12 +9458,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="141">
+      <c r="E41" s="142">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="142"/>
-      <c r="G41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="144"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -9479,11 +9479,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="144" t="s">
+      <c r="E43" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -9627,25 +9627,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="151"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10985,12 +10985,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="141">
+      <c r="E60" s="142">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="142"/>
-      <c r="G60" s="143"/>
+      <c r="F60" s="143"/>
+      <c r="G60" s="144"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -11006,11 +11006,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="144" t="s">
+      <c r="E62" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="144"/>
-      <c r="G62" s="144"/>
+      <c r="F62" s="145"/>
+      <c r="G62" s="145"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -11151,25 +11151,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="151"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12570,12 +12570,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="141">
+      <c r="E61" s="142">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="142"/>
-      <c r="G61" s="143"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="144"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -12591,11 +12591,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="144" t="s">
+      <c r="E63" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="144"/>
-      <c r="G63" s="144"/>
+      <c r="F63" s="145"/>
+      <c r="G63" s="145"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -12736,25 +12736,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="151"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13978,7 +13978,7 @@
       <c r="E52" s="20">
         <v>0</v>
       </c>
-      <c r="F52" s="158" t="s">
+      <c r="F52" s="140" t="s">
         <v>42</v>
       </c>
       <c r="G52" s="96">
@@ -14196,12 +14196,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="141">
+      <c r="E64" s="142">
         <f>E60-G60</f>
         <v>4760</v>
       </c>
-      <c r="F64" s="142"/>
-      <c r="G64" s="143"/>
+      <c r="F64" s="143"/>
+      <c r="G64" s="144"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -14217,11 +14217,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="144" t="s">
+      <c r="E66" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="144"/>
-      <c r="G66" s="144"/>
+      <c r="F66" s="145"/>
+      <c r="G66" s="145"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -14344,8 +14344,8 @@
   </sheetPr>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14362,25 +14362,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="151"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14817,11 +14817,15 @@
       <c r="E20" s="20">
         <v>37167</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="21">
+        <v>44673</v>
+      </c>
+      <c r="G20" s="22">
+        <v>37167</v>
+      </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>37167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -15315,78 +15319,108 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="23">
+        <v>44673</v>
+      </c>
       <c r="B42" s="13">
         <v>323</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
+      <c r="D42" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="20">
+        <v>7957</v>
+      </c>
       <c r="F42" s="21"/>
       <c r="G42" s="22"/>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7957</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="23">
+        <v>44673</v>
+      </c>
       <c r="B43" s="13">
         <v>324</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
+      <c r="D43" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="20">
+        <v>45974</v>
+      </c>
       <c r="F43" s="21"/>
       <c r="G43" s="22"/>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="23">
+        <v>44673</v>
+      </c>
       <c r="B44" s="13">
         <v>325</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
+      <c r="D44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="20">
+        <v>2351</v>
+      </c>
       <c r="F44" s="21"/>
       <c r="G44" s="22"/>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="23">
+        <v>44674</v>
+      </c>
       <c r="B45" s="13">
         <v>326</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
+      <c r="D45" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="20">
+        <v>14835</v>
+      </c>
       <c r="F45" s="21"/>
       <c r="G45" s="22"/>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14835</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="23">
+        <v>44674</v>
+      </c>
       <c r="B46" s="13">
         <v>327</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
+      <c r="D46" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="20">
+        <v>22221</v>
+      </c>
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
       <c r="H46" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22221</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15589,16 +15623,16 @@
       <c r="D60" s="2"/>
       <c r="E60" s="39">
         <f>SUM(E4:E59)</f>
-        <v>684201</v>
+        <v>777539</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="39">
         <f>SUM(G4:G59)</f>
-        <v>573057</v>
+        <v>610224</v>
       </c>
       <c r="H60" s="40">
         <f>SUM(H4:H59)</f>
-        <v>111144</v>
+        <v>167315</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -15640,12 +15674,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="141">
+      <c r="E64" s="142">
         <f>E60-G60</f>
-        <v>111144</v>
-      </c>
-      <c r="F64" s="142"/>
-      <c r="G64" s="143"/>
+        <v>167315</v>
+      </c>
+      <c r="F64" s="143"/>
+      <c r="G64" s="144"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -15661,11 +15695,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="144" t="s">
+      <c r="E66" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="144"/>
-      <c r="G66" s="144"/>
+      <c r="F66" s="145"/>
+      <c r="G66" s="145"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -15853,26 +15887,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  4 CARNES   ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  4 CARNES   ZAVALETA   ABRIL  2022.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="43">
   <si>
     <t>REMISION</t>
   </si>
@@ -753,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1037,7 +1037,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2415,24 +2414,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="147"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -3578,12 +3577,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="142">
+      <c r="D55" s="141">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="143"/>
-      <c r="F55" s="144"/>
+      <c r="E55" s="142"/>
+      <c r="F55" s="143"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3597,11 +3596,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="145" t="s">
+      <c r="D57" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3729,27 +3728,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -3944,11 +3943,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="155">
+      <c r="G11" s="154">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="156"/>
+      <c r="H11" s="155"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -5323,11 +5322,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="157">
+      <c r="G81" s="156">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="158"/>
+      <c r="H81" s="157"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -5415,12 +5414,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="142">
+      <c r="E88" s="141">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="143"/>
-      <c r="G88" s="144"/>
+      <c r="F88" s="142"/>
+      <c r="G88" s="143"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -5437,11 +5436,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="145" t="s">
+      <c r="E90" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="145"/>
-      <c r="G90" s="145"/>
+      <c r="F90" s="144"/>
+      <c r="G90" s="144"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5586,25 +5585,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="147"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6496,12 +6495,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="142">
+      <c r="E52" s="141">
         <f>E48-G48</f>
         <v>734621</v>
       </c>
-      <c r="F52" s="143"/>
-      <c r="G52" s="144"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="143"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -6517,11 +6516,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="145" t="s">
+      <c r="E54" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="145"/>
-      <c r="G54" s="145"/>
+      <c r="F54" s="144"/>
+      <c r="G54" s="144"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -6677,25 +6676,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="147"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8425,12 +8424,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="142">
+      <c r="E76" s="141">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="143"/>
-      <c r="G76" s="144"/>
+      <c r="F76" s="142"/>
+      <c r="G76" s="143"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -8446,11 +8445,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="145" t="s">
+      <c r="E78" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="145"/>
-      <c r="G78" s="145"/>
+      <c r="F78" s="144"/>
+      <c r="G78" s="144"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -8591,25 +8590,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="147"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9458,12 +9457,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="142">
+      <c r="E41" s="141">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="143"/>
-      <c r="G41" s="144"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="143"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -9479,11 +9478,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="145" t="s">
+      <c r="E43" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="144"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -9627,25 +9626,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="151"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10985,12 +10984,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="142">
+      <c r="E60" s="141">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="143"/>
-      <c r="G60" s="144"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="143"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -11006,11 +11005,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="145" t="s">
+      <c r="E62" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="145"/>
-      <c r="G62" s="145"/>
+      <c r="F62" s="144"/>
+      <c r="G62" s="144"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -11151,25 +11150,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="151"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12570,12 +12569,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="142">
+      <c r="E61" s="141">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="143"/>
-      <c r="G61" s="144"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="143"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -12591,11 +12590,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="145" t="s">
+      <c r="E63" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="145"/>
-      <c r="G63" s="145"/>
+      <c r="F63" s="144"/>
+      <c r="G63" s="144"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -12736,25 +12735,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="151"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13978,7 +13977,7 @@
       <c r="E52" s="20">
         <v>0</v>
       </c>
-      <c r="F52" s="140" t="s">
+      <c r="F52" s="139" t="s">
         <v>42</v>
       </c>
       <c r="G52" s="96">
@@ -14196,12 +14195,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="142">
+      <c r="E64" s="141">
         <f>E60-G60</f>
         <v>4760</v>
       </c>
-      <c r="F64" s="143"/>
-      <c r="G64" s="144"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="143"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -14217,11 +14216,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="145" t="s">
+      <c r="E66" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="145"/>
-      <c r="G66" s="145"/>
+      <c r="F66" s="144"/>
+      <c r="G66" s="144"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -14344,8 +14343,8 @@
   </sheetPr>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14362,25 +14361,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="151"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14519,7 +14518,7 @@
         <v>289</v>
       </c>
       <c r="C8" s="90"/>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="137" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="20">
@@ -14740,7 +14739,7 @@
         <v>298</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="138" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="20">
@@ -14886,7 +14885,7 @@
         <v>304</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="139" t="s">
+      <c r="D23" s="138" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="20">
@@ -14907,7 +14906,7 @@
         <v>305</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="138" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="20">
@@ -15276,7 +15275,7 @@
         <v>10777</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>44671</v>
       </c>
@@ -15284,17 +15283,21 @@
         <v>321</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="137" t="s">
+      <c r="D40" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E40" s="20">
         <v>1758</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="21">
+        <v>44678</v>
+      </c>
+      <c r="G40" s="22">
+        <v>1758</v>
+      </c>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>1758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15424,63 +15427,87 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="23">
+        <v>44676</v>
+      </c>
       <c r="B47" s="13">
         <v>328</v>
       </c>
       <c r="C47" s="24"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
+      <c r="D47" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="20">
+        <v>8065</v>
+      </c>
       <c r="F47" s="21"/>
       <c r="G47" s="22"/>
       <c r="H47" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8065</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="23">
+        <v>44678</v>
+      </c>
       <c r="B48" s="13">
         <v>329</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
+      <c r="D48" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="20">
+        <v>7600</v>
+      </c>
       <c r="F48" s="21"/>
       <c r="G48" s="22"/>
       <c r="H48" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="23">
+        <v>44678</v>
+      </c>
       <c r="B49" s="13">
         <v>330</v>
       </c>
       <c r="C49" s="24"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
+      <c r="D49" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="20">
+        <v>1446</v>
+      </c>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
       <c r="H49" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="23">
+        <v>44678</v>
+      </c>
       <c r="B50" s="13">
         <v>331</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
+      <c r="D50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="20">
+        <v>1954</v>
+      </c>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
       <c r="H50" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15623,16 +15650,16 @@
       <c r="D60" s="2"/>
       <c r="E60" s="39">
         <f>SUM(E4:E59)</f>
-        <v>777539</v>
+        <v>796604</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="39">
         <f>SUM(G4:G59)</f>
-        <v>610224</v>
+        <v>611982</v>
       </c>
       <c r="H60" s="40">
         <f>SUM(H4:H59)</f>
-        <v>167315</v>
+        <v>184622</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -15674,12 +15701,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="142">
+      <c r="E64" s="141">
         <f>E60-G60</f>
-        <v>167315</v>
-      </c>
-      <c r="F64" s="143"/>
-      <c r="G64" s="144"/>
+        <v>184622</v>
+      </c>
+      <c r="F64" s="142"/>
+      <c r="G64" s="143"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -15695,11 +15722,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="145" t="s">
+      <c r="E66" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="145"/>
-      <c r="G66" s="145"/>
+      <c r="F66" s="144"/>
+      <c r="G66" s="144"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -15887,26 +15914,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  4 CARNES   ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  4 CARNES   ZAVALETA   ABRIL  2022.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="43">
   <si>
     <t>REMISION</t>
   </si>
@@ -1800,13 +1800,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1853,13 +1853,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2395,7 +2395,7 @@
   </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -6658,7 +6658,7 @@
   </sheetPr>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -11132,8 +11132,8 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12717,8 +12717,8 @@
   </sheetPr>
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13560,11 +13560,15 @@
       <c r="E35" s="20">
         <v>2610</v>
       </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="88"/>
+      <c r="F35" s="85">
+        <v>44677</v>
+      </c>
+      <c r="G35" s="88">
+        <v>2610</v>
+      </c>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
-        <v>2610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14002,11 +14006,15 @@
       <c r="E53" s="20">
         <v>2150</v>
       </c>
-      <c r="F53" s="95"/>
-      <c r="G53" s="96"/>
+      <c r="F53" s="95">
+        <v>44677</v>
+      </c>
+      <c r="G53" s="96">
+        <v>2150</v>
+      </c>
       <c r="H53" s="18">
         <f t="shared" si="0"/>
-        <v>2150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14149,11 +14157,11 @@
       <c r="F60" s="39"/>
       <c r="G60" s="39">
         <f>SUM(G4:G59)</f>
-        <v>1075782</v>
+        <v>1080542</v>
       </c>
       <c r="H60" s="40">
         <f>SUM(H4:H59)</f>
-        <v>4760</v>
+        <v>0</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -14197,7 +14205,7 @@
       <c r="D64" s="2"/>
       <c r="E64" s="141">
         <f>E60-G60</f>
-        <v>4760</v>
+        <v>0</v>
       </c>
       <c r="F64" s="142"/>
       <c r="G64" s="143"/>
@@ -14341,10 +14349,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14430,7 +14438,7 @@
         <v>9500</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H59" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H66" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -15180,11 +15188,15 @@
       <c r="E35" s="20">
         <v>43066</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="21">
+        <v>44679</v>
+      </c>
+      <c r="G35" s="22">
+        <v>43066</v>
+      </c>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
-        <v>43066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15468,7 +15480,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>44678</v>
       </c>
@@ -15489,7 +15501,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>44678</v>
       </c>
@@ -15510,14 +15522,20 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+    <row r="51" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>44679</v>
+      </c>
       <c r="B51" s="13">
         <v>332</v>
       </c>
       <c r="C51" s="24"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
+      <c r="D51" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0</v>
+      </c>
       <c r="F51" s="21"/>
       <c r="G51" s="22"/>
       <c r="H51" s="18">
@@ -15525,29 +15543,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>44679</v>
+      </c>
       <c r="B52" s="13">
         <v>333</v>
       </c>
       <c r="C52" s="24"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
+      <c r="D52" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="20">
+        <v>43123</v>
+      </c>
       <c r="F52" s="21"/>
       <c r="G52" s="22"/>
       <c r="H52" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>44679</v>
+      </c>
       <c r="B53" s="13">
         <v>334</v>
       </c>
       <c r="C53" s="24"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
+      <c r="D53" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="20">
+        <v>0</v>
+      </c>
       <c r="F53" s="21"/>
       <c r="G53" s="22"/>
       <c r="H53" s="18">
@@ -15555,275 +15585,333 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <v>44679</v>
+      </c>
       <c r="B54" s="13">
         <v>335</v>
       </c>
       <c r="C54" s="24"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
+      <c r="D54" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="20">
+        <v>6108</v>
+      </c>
       <c r="F54" s="21"/>
       <c r="G54" s="22"/>
       <c r="H54" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>44680</v>
+      </c>
       <c r="B55" s="13">
         <v>336</v>
       </c>
       <c r="C55" s="24"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
+      <c r="D55" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="20">
+        <v>12525</v>
+      </c>
       <c r="F55" s="21"/>
       <c r="G55" s="22"/>
       <c r="H55" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+        <v>12525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
+        <v>44680</v>
+      </c>
       <c r="B56" s="13">
         <v>337</v>
       </c>
       <c r="C56" s="24"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
+      <c r="D56" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="20">
+        <v>25463</v>
+      </c>
       <c r="F56" s="21"/>
       <c r="G56" s="22"/>
       <c r="H56" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+        <v>25463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
+        <v>44681</v>
+      </c>
       <c r="B57" s="13">
         <v>338</v>
       </c>
       <c r="C57" s="24"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
+      <c r="D57" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="20">
+        <v>2640</v>
+      </c>
       <c r="F57" s="21"/>
       <c r="G57" s="22"/>
       <c r="H57" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="13"/>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
+        <v>44681</v>
+      </c>
+      <c r="B58" s="13">
+        <v>339</v>
+      </c>
       <c r="C58" s="24"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
+      <c r="D58" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="20">
+        <v>51659</v>
+      </c>
       <c r="F58" s="21"/>
       <c r="G58" s="22"/>
       <c r="H58" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="31"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34">
-        <v>0</v>
-      </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="37"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="39">
-        <f>SUM(E4:E59)</f>
-        <v>796604</v>
-      </c>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39">
-        <f>SUM(G4:G59)</f>
-        <v>611982</v>
-      </c>
-      <c r="H60" s="40">
-        <f>SUM(H4:H59)</f>
-        <v>184622</v>
-      </c>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="37"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="45" t="s">
+        <v>51659</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="13">
+        <v>340</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="13">
+        <v>341</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="13">
+        <v>342</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="13">
+        <v>343</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="13">
+        <v>344</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="13">
+        <v>345</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="31"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="34">
+        <v>0</v>
+      </c>
+      <c r="F66" s="35"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="39">
+        <f>SUM(E4:E66)</f>
+        <v>938122</v>
+      </c>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39">
+        <f>SUM(G4:G66)</f>
+        <v>655048</v>
+      </c>
+      <c r="H67" s="40">
+        <f>SUM(H4:H66)</f>
+        <v>283074</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="37"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="37"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F62" s="42"/>
-      <c r="G62" s="46" t="s">
+      <c r="F69" s="42"/>
+      <c r="G69" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="44"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="37"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="141">
-        <f>E60-G60</f>
-        <v>184622</v>
-      </c>
-      <c r="F64" s="142"/>
-      <c r="G64" s="143"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="37"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="43"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B66" s="37"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="144" t="s">
+      <c r="H69" s="44"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="37"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="141">
+        <f>E67-G67</f>
+        <v>283074</v>
+      </c>
+      <c r="F71" s="142"/>
+      <c r="G71" s="143"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="43"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B73" s="37"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="144"/>
-      <c r="G66" s="144"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="122"/>
-      <c r="B67" s="123"/>
-      <c r="C67" s="124"/>
-      <c r="D67" s="125"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="128"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="112"/>
-      <c r="B68" s="113"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="115"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="129"/>
-      <c r="B69" s="130"/>
-      <c r="C69" s="131"/>
-      <c r="D69" s="132"/>
-      <c r="E69" s="133"/>
-      <c r="F69" s="134"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="115"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="129"/>
-      <c r="B70" s="130"/>
-      <c r="C70" s="131"/>
-      <c r="D70" s="132"/>
-      <c r="E70" s="133"/>
-      <c r="F70" s="134"/>
-      <c r="G70" s="135"/>
-      <c r="H70" s="115"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="129"/>
-      <c r="B71" s="130"/>
-      <c r="C71" s="131"/>
-      <c r="D71" s="132"/>
-      <c r="E71" s="133"/>
-      <c r="F71" s="134"/>
-      <c r="G71" s="135"/>
-      <c r="H71" s="115"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="129"/>
-      <c r="B72" s="130"/>
-      <c r="C72" s="131"/>
-      <c r="D72" s="132"/>
-      <c r="E72" s="133"/>
-      <c r="F72" s="134"/>
-      <c r="G72" s="135"/>
-      <c r="H72" s="115"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="129"/>
-      <c r="B73" s="130"/>
-      <c r="C73" s="131"/>
-      <c r="D73" s="132"/>
-      <c r="E73" s="133"/>
-      <c r="F73" s="134"/>
-      <c r="G73" s="135"/>
-      <c r="H73" s="115"/>
+      <c r="F73" s="144"/>
+      <c r="G73" s="144"/>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="129"/>
-      <c r="B74" s="130"/>
-      <c r="C74" s="131"/>
-      <c r="D74" s="132"/>
-      <c r="E74" s="133"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="135"/>
-      <c r="H74" s="115"/>
+      <c r="A74" s="122"/>
+      <c r="B74" s="123"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="125"/>
+      <c r="E74" s="126"/>
+      <c r="F74" s="127"/>
+      <c r="G74" s="128"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="129"/>
-      <c r="B75" s="130"/>
-      <c r="C75" s="131"/>
-      <c r="D75" s="132"/>
-      <c r="E75" s="133"/>
-      <c r="F75" s="134"/>
-      <c r="G75" s="135"/>
+    <row r="75" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="112"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="114"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="50"/>
       <c r="H75" s="115"/>
       <c r="I75" s="2"/>
     </row>
@@ -15858,23 +15946,100 @@
       <c r="F78" s="134"/>
       <c r="G78" s="135"/>
       <c r="H78" s="115"/>
+      <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="116"/>
-      <c r="B79" s="117"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="119"/>
-      <c r="F79" s="120"/>
-      <c r="G79" s="121"/>
+      <c r="A79" s="129"/>
+      <c r="B79" s="130"/>
+      <c r="C79" s="131"/>
+      <c r="D79" s="132"/>
+      <c r="E79" s="133"/>
+      <c r="F79" s="134"/>
+      <c r="G79" s="135"/>
       <c r="H79" s="115"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="129"/>
+      <c r="B80" s="130"/>
+      <c r="C80" s="131"/>
+      <c r="D80" s="132"/>
+      <c r="E80" s="133"/>
+      <c r="F80" s="134"/>
+      <c r="G80" s="135"/>
+      <c r="H80" s="115"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="129"/>
+      <c r="B81" s="130"/>
+      <c r="C81" s="131"/>
+      <c r="D81" s="132"/>
+      <c r="E81" s="133"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="135"/>
+      <c r="H81" s="115"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="129"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="131"/>
+      <c r="D82" s="132"/>
+      <c r="E82" s="133"/>
+      <c r="F82" s="134"/>
+      <c r="G82" s="135"/>
+      <c r="H82" s="115"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="129"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="133"/>
+      <c r="F83" s="134"/>
+      <c r="G83" s="135"/>
+      <c r="H83" s="115"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="129"/>
+      <c r="B84" s="130"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="133"/>
+      <c r="F84" s="134"/>
+      <c r="G84" s="135"/>
+      <c r="H84" s="115"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="129"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="131"/>
+      <c r="D85" s="132"/>
+      <c r="E85" s="133"/>
+      <c r="F85" s="134"/>
+      <c r="G85" s="135"/>
+      <c r="H85" s="115"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="116"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="119"/>
+      <c r="F86" s="120"/>
+      <c r="G86" s="121"/>
+      <c r="H86" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E73:G73"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  4 CARNES   ZAVALETA   ABRIL  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/CREDITOS  4 CARNES   ZAVALETA   ABRIL  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="62">
   <si>
     <t>REMISION</t>
   </si>
@@ -272,6 +272,63 @@
   <si>
     <t>taras 18-Abr-22</t>
   </si>
+  <si>
+    <t>13246 C</t>
+  </si>
+  <si>
+    <t>13425 C</t>
+  </si>
+  <si>
+    <t>13429 C</t>
+  </si>
+  <si>
+    <t>13460 C</t>
+  </si>
+  <si>
+    <t>13541 C</t>
+  </si>
+  <si>
+    <t>13652 C</t>
+  </si>
+  <si>
+    <t>13809 C</t>
+  </si>
+  <si>
+    <t>13913 C</t>
+  </si>
+  <si>
+    <t>14009 C</t>
+  </si>
+  <si>
+    <t>14039 C</t>
+  </si>
+  <si>
+    <t>14105 C</t>
+  </si>
+  <si>
+    <t>14255 C</t>
+  </si>
+  <si>
+    <t>14326 C</t>
+  </si>
+  <si>
+    <t>14455 C</t>
+  </si>
+  <si>
+    <t>14471 C</t>
+  </si>
+  <si>
+    <t>14550 C</t>
+  </si>
+  <si>
+    <t>14611 C</t>
+  </si>
+  <si>
+    <t>14681 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABASTOS DE 4 CANRES  HERRADURA </t>
+  </si>
 </sst>
 </file>
 
@@ -283,7 +340,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,8 +508,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,8 +633,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -748,12 +856,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1098,6 +1230,36 @@
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="25" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1800,13 +1962,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1853,13 +2015,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14349,10 +14511,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14438,7 +14600,7 @@
         <v>9500</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H66" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H60" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -15480,7 +15642,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>44678</v>
       </c>
@@ -15501,7 +15663,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>44678</v>
       </c>
@@ -15522,7 +15684,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>44679</v>
       </c>
@@ -15543,7 +15705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>44679</v>
       </c>
@@ -15564,7 +15726,7 @@
         <v>43123</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>44679</v>
       </c>
@@ -15585,7 +15747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>44679</v>
       </c>
@@ -15606,7 +15768,7 @@
         <v>6108</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>44680</v>
       </c>
@@ -15627,7 +15789,7 @@
         <v>12525</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>44680</v>
       </c>
@@ -15648,7 +15810,7 @@
         <v>25463</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>44681</v>
       </c>
@@ -15669,7 +15831,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>44681</v>
       </c>
@@ -15690,11 +15852,9 @@
         <v>51659</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
-      <c r="B59" s="13">
-        <v>340</v>
-      </c>
+      <c r="B59" s="13"/>
       <c r="C59" s="24"/>
       <c r="D59" s="19"/>
       <c r="E59" s="20"/>
@@ -15705,213 +15865,191 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="13">
-        <v>341</v>
-      </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="13">
-        <v>342</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="13">
-        <v>343</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="13">
-        <v>344</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="13">
-        <v>345</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="31"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="34">
-        <v>0</v>
-      </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="31"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34">
+        <v>0</v>
+      </c>
+      <c r="F60" s="35"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="39">
+        <f>SUM(E4:E60)</f>
+        <v>938122</v>
+      </c>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39">
+        <f>SUM(G4:G60)</f>
+        <v>655048</v>
+      </c>
+      <c r="H61" s="40">
+        <f>SUM(H4:H60)</f>
+        <v>283074</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="42"/>
+      <c r="G63" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="44"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="141">
+        <f>E61-G61</f>
+        <v>283074</v>
+      </c>
+      <c r="F65" s="142"/>
+      <c r="G65" s="143"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="43"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="39">
-        <f>SUM(E4:E66)</f>
-        <v>938122</v>
-      </c>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39">
-        <f>SUM(G4:G66)</f>
-        <v>655048</v>
-      </c>
-      <c r="H67" s="40">
-        <f>SUM(H4:H66)</f>
-        <v>283074</v>
-      </c>
+      <c r="E67" s="144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="144"/>
+      <c r="G67" s="144"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="37"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="44"/>
+      <c r="A68" s="122"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="124"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="128"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B69" s="37"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="42"/>
-      <c r="G69" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="44"/>
+    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="112"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="115"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="37"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="44"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="129"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="131"/>
+      <c r="D70" s="132"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="134"/>
+      <c r="G70" s="135"/>
+      <c r="H70" s="115"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="37"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="141">
-        <f>E67-G67</f>
-        <v>283074</v>
-      </c>
-      <c r="F71" s="142"/>
-      <c r="G71" s="143"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="129"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="131"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="133"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="135"/>
+      <c r="H71" s="115"/>
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="37"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="43"/>
+      <c r="A72" s="129"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="132"/>
+      <c r="E72" s="133"/>
+      <c r="F72" s="134"/>
+      <c r="G72" s="135"/>
+      <c r="H72" s="115"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B73" s="37"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="144"/>
-      <c r="G73" s="144"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="129"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="131"/>
+      <c r="D73" s="132"/>
+      <c r="E73" s="133"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="135"/>
+      <c r="H73" s="115"/>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="122"/>
-      <c r="B74" s="123"/>
-      <c r="C74" s="124"/>
-      <c r="D74" s="125"/>
-      <c r="E74" s="126"/>
-      <c r="F74" s="127"/>
-      <c r="G74" s="128"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="130"/>
+      <c r="C74" s="131"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="133"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="135"/>
+      <c r="H74" s="115"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="112"/>
-      <c r="B75" s="113"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="50"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="129"/>
+      <c r="B75" s="130"/>
+      <c r="C75" s="131"/>
+      <c r="D75" s="132"/>
+      <c r="E75" s="133"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="135"/>
       <c r="H75" s="115"/>
       <c r="I75" s="2"/>
     </row>
@@ -15957,89 +16095,23 @@
       <c r="F79" s="134"/>
       <c r="G79" s="135"/>
       <c r="H79" s="115"/>
-      <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="129"/>
-      <c r="B80" s="130"/>
-      <c r="C80" s="131"/>
-      <c r="D80" s="132"/>
-      <c r="E80" s="133"/>
-      <c r="F80" s="134"/>
-      <c r="G80" s="135"/>
+      <c r="A80" s="116"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="118"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="119"/>
+      <c r="F80" s="120"/>
+      <c r="G80" s="121"/>
       <c r="H80" s="115"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="129"/>
-      <c r="B81" s="130"/>
-      <c r="C81" s="131"/>
-      <c r="D81" s="132"/>
-      <c r="E81" s="133"/>
-      <c r="F81" s="134"/>
-      <c r="G81" s="135"/>
-      <c r="H81" s="115"/>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="129"/>
-      <c r="B82" s="130"/>
-      <c r="C82" s="131"/>
-      <c r="D82" s="132"/>
-      <c r="E82" s="133"/>
-      <c r="F82" s="134"/>
-      <c r="G82" s="135"/>
-      <c r="H82" s="115"/>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="129"/>
-      <c r="B83" s="130"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="132"/>
-      <c r="E83" s="133"/>
-      <c r="F83" s="134"/>
-      <c r="G83" s="135"/>
-      <c r="H83" s="115"/>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="129"/>
-      <c r="B84" s="130"/>
-      <c r="C84" s="131"/>
-      <c r="D84" s="132"/>
-      <c r="E84" s="133"/>
-      <c r="F84" s="134"/>
-      <c r="G84" s="135"/>
-      <c r="H84" s="115"/>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="129"/>
-      <c r="B85" s="130"/>
-      <c r="C85" s="131"/>
-      <c r="D85" s="132"/>
-      <c r="E85" s="133"/>
-      <c r="F85" s="134"/>
-      <c r="G85" s="135"/>
-      <c r="H85" s="115"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="116"/>
-      <c r="B86" s="117"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="115"/>
-      <c r="E86" s="119"/>
-      <c r="F86" s="120"/>
-      <c r="G86" s="121"/>
-      <c r="H86" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E67:G67"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16050,13 +16122,366 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="173" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="163">
+        <v>44616</v>
+      </c>
+      <c r="B3" s="158" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="22">
+        <v>61856.639999999999</v>
+      </c>
+      <c r="D3" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E3" s="171">
+        <v>61856.639999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="163">
+        <v>44617</v>
+      </c>
+      <c r="B4" s="158" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="22">
+        <v>145889.51999999999</v>
+      </c>
+      <c r="D4" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E4" s="171">
+        <v>145889.51999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="159">
+        <v>44617</v>
+      </c>
+      <c r="B5" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="22">
+        <v>200</v>
+      </c>
+      <c r="D5" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E5" s="171">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="161">
+        <v>44617</v>
+      </c>
+      <c r="B6" s="162" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="22">
+        <v>2373.8000000000002</v>
+      </c>
+      <c r="D6" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E6" s="171">
+        <v>2373.8000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="161">
+        <v>44618</v>
+      </c>
+      <c r="B7" s="162" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="22">
+        <v>40377.15</v>
+      </c>
+      <c r="D7" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E7" s="171">
+        <v>40377.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="164">
+        <v>44620</v>
+      </c>
+      <c r="B8" s="165" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="166">
+        <v>2909.4</v>
+      </c>
+      <c r="D8" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E8" s="168">
+        <v>2909.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="164">
+        <v>44621</v>
+      </c>
+      <c r="B9" s="165" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="166">
+        <v>74016.2</v>
+      </c>
+      <c r="D9" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E9" s="168">
+        <v>74016.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="164">
+        <v>44622</v>
+      </c>
+      <c r="B10" s="165" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="166">
+        <v>38036.6</v>
+      </c>
+      <c r="D10" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E10" s="168">
+        <v>38036.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="164">
+        <v>44623</v>
+      </c>
+      <c r="B11" s="165" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="166">
+        <v>52111.11</v>
+      </c>
+      <c r="D11" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E11" s="168">
+        <v>52111.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="164">
+        <v>44623</v>
+      </c>
+      <c r="B12" s="165" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="166">
+        <v>394.2</v>
+      </c>
+      <c r="D12" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E12" s="168">
+        <v>394.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="164">
+        <v>44624</v>
+      </c>
+      <c r="B13" s="165" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="166">
+        <v>52173.7</v>
+      </c>
+      <c r="D13" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E13" s="168">
+        <v>52173.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="164">
+        <v>44625</v>
+      </c>
+      <c r="B14" s="165" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="166">
+        <v>47563.28</v>
+      </c>
+      <c r="D14" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E14" s="168">
+        <v>47563.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="164">
+        <v>44625</v>
+      </c>
+      <c r="B15" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="166">
+        <v>1406</v>
+      </c>
+      <c r="D15" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E15" s="168">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="164">
+        <v>44627</v>
+      </c>
+      <c r="B16" s="165" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="166">
+        <v>44449.599999999999</v>
+      </c>
+      <c r="D16" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E16" s="168">
+        <v>44449.599999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="164">
+        <v>44627</v>
+      </c>
+      <c r="B17" s="165" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="166">
+        <v>848.4</v>
+      </c>
+      <c r="D17" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E17" s="168">
+        <v>848.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="164">
+        <v>44628</v>
+      </c>
+      <c r="B18" s="165" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="166">
+        <v>71723.600000000006</v>
+      </c>
+      <c r="D18" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E18" s="168">
+        <v>71723.600000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="164">
+        <v>44628</v>
+      </c>
+      <c r="B19" s="165" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="166">
+        <v>1776</v>
+      </c>
+      <c r="D19" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E19" s="168">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="164">
+        <v>44629</v>
+      </c>
+      <c r="B20" s="165" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="166">
+        <v>76124.3</v>
+      </c>
+      <c r="D20" s="167">
+        <v>44643</v>
+      </c>
+      <c r="E20" s="168">
+        <v>61979.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="161"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="161"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="161">
+        <v>44618</v>
+      </c>
+      <c r="B23" s="162" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="E23" s="172">
+        <f>SUM(E3:E22)</f>
+        <v>700085</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
